--- a/data/trans_orig/P6606-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>140424</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121696</v>
+        <v>120827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>159367</v>
+        <v>161304</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3757196036987844</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3256116382459222</v>
+        <v>0.3232865227640658</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4264025324963455</v>
+        <v>0.4315860170219499</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>89</v>
@@ -765,19 +765,19 @@
         <v>94015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>81687</v>
+        <v>81592</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105711</v>
+        <v>105810</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6323057377588762</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5493948947269534</v>
+        <v>0.5487534442748616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7109669689900026</v>
+        <v>0.7116371303204051</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>226</v>
@@ -786,19 +786,19 @@
         <v>234439</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>211151</v>
+        <v>209833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>255802</v>
+        <v>257290</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4487447719470685</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4041684124643783</v>
+        <v>0.4016448859838244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4896367918652033</v>
+        <v>0.4924839514287499</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>84718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68924</v>
+        <v>67283</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102322</v>
+        <v>103118</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2266721597257446</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1844129261725209</v>
+        <v>0.1800229064922658</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2737728257442217</v>
+        <v>0.2759024870041162</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>39</v>
@@ -836,19 +836,19 @@
         <v>41909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31628</v>
+        <v>30996</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54786</v>
+        <v>53982</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2818600236209225</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2127199699698919</v>
+        <v>0.2084652721255738</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3684661253859058</v>
+        <v>0.3630620734481175</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>119</v>
@@ -857,19 +857,19 @@
         <v>126627</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>107725</v>
+        <v>107610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>148188</v>
+        <v>147594</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2423787880709261</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2061982469990799</v>
+        <v>0.2059785978044845</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2836503270013719</v>
+        <v>0.2825132050453821</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>116503</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98516</v>
+        <v>97327</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>135565</v>
+        <v>137377</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3117159083312673</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2635912276570854</v>
+        <v>0.2604082624081873</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3627186047988453</v>
+        <v>0.367567851317686</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -907,19 +907,19 @@
         <v>9546</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4684</v>
+        <v>4714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16968</v>
+        <v>16464</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06420393330341488</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03150469942565441</v>
+        <v>0.03170164481086614</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1141175187528079</v>
+        <v>0.1107303882431964</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -928,19 +928,19 @@
         <v>126049</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>104451</v>
+        <v>106241</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>145835</v>
+        <v>146491</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2412732724262384</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1999324948742109</v>
+        <v>0.2033577123397158</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2791457447100941</v>
+        <v>0.2804019564113832</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>32102</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21902</v>
+        <v>23162</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44763</v>
+        <v>45100</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08589232824420359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05860060922657823</v>
+        <v>0.06197307278095225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1197678049968845</v>
+        <v>0.1206696300745392</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -978,19 +978,19 @@
         <v>3216</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8652</v>
+        <v>8689</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02163030531678642</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006891371468926035</v>
+        <v>0.006788117050722128</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05818940416395958</v>
+        <v>0.05843523369738136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>37</v>
@@ -999,19 +999,19 @@
         <v>35318</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25493</v>
+        <v>25394</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48329</v>
+        <v>48860</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06760316755576712</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04879658119273558</v>
+        <v>0.04860659782410912</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09250791008062481</v>
+        <v>0.09352307251352944</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>464087</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>427088</v>
+        <v>433120</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>496236</v>
+        <v>499692</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4136247475994226</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3806483896160748</v>
+        <v>0.3860248930371465</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4422781191627894</v>
+        <v>0.445357535347056</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>436</v>
@@ -1124,19 +1124,19 @@
         <v>457748</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>437585</v>
+        <v>435650</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>477146</v>
+        <v>475216</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7881661616500703</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7534495062052001</v>
+        <v>0.7501174469741723</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8215661240503285</v>
+        <v>0.8182429114496461</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>877</v>
@@ -1145,19 +1145,19 @@
         <v>921835</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>880430</v>
+        <v>881116</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>960554</v>
+        <v>963683</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5413716960160453</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5170551694316278</v>
+        <v>0.5174582771191707</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5641101570579049</v>
+        <v>0.565947863850189</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>305085</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>277206</v>
+        <v>274453</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>339436</v>
+        <v>336781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2719117903357653</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2470636227528533</v>
+        <v>0.244609979918805</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3025275206303943</v>
+        <v>0.30016091748895</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>85</v>
@@ -1195,19 +1195,19 @@
         <v>87787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70362</v>
+        <v>71837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107196</v>
+        <v>107187</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1511542409946803</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1211512742661171</v>
+        <v>0.1236909462973353</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1845741654209868</v>
+        <v>0.1845583433319367</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>374</v>
@@ -1216,19 +1216,19 @@
         <v>392872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>357184</v>
+        <v>360637</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>428000</v>
+        <v>428976</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2307243332271976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2097654213543529</v>
+        <v>0.2117935682611464</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2513541824002204</v>
+        <v>0.2519273600384985</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>267200</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>241717</v>
+        <v>238795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>295237</v>
+        <v>297567</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2381463895474403</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2154337638145488</v>
+        <v>0.2128292427316201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2631344132910071</v>
+        <v>0.2652108902483321</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -1266,19 +1266,19 @@
         <v>22934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14996</v>
+        <v>14325</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32784</v>
+        <v>34766</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03948821830652649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02582137719751803</v>
+        <v>0.02466588767483791</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05644817423010882</v>
+        <v>0.05986090960413246</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>282</v>
@@ -1287,19 +1287,19 @@
         <v>290134</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>263316</v>
+        <v>260448</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>324496</v>
+        <v>324898</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.170388928818086</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1546394044579233</v>
+        <v>0.1529551393847317</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1905687773918214</v>
+        <v>0.1908049045657473</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>85628</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69653</v>
+        <v>69013</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106421</v>
+        <v>105382</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07631707251737174</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06207906845871121</v>
+        <v>0.06150881397002873</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09484957004554129</v>
+        <v>0.09392307977130417</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1337,19 +1337,19 @@
         <v>12307</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6123</v>
+        <v>6915</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20343</v>
+        <v>20576</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02119137904872292</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01054203794105618</v>
+        <v>0.01190582670981612</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03502779767857326</v>
+        <v>0.03542901131037723</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>96</v>
@@ -1358,19 +1358,19 @@
         <v>97935</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>80783</v>
+        <v>80772</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116841</v>
+        <v>121422</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05751504193867116</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04744180142612205</v>
+        <v>0.04743519834143655</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06861800290527233</v>
+        <v>0.07130846525937796</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>328331</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>311844</v>
+        <v>310402</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>343843</v>
+        <v>343739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8132708788097984</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7724326248212831</v>
+        <v>0.7688606208880496</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8516940984264709</v>
+        <v>0.8514349739315875</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>237</v>
@@ -1483,19 +1483,19 @@
         <v>247602</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>235121</v>
+        <v>234399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>258689</v>
+        <v>258169</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.858967355967002</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8156704693585912</v>
+        <v>0.8131641440586552</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.897431675052048</v>
+        <v>0.8956266147939971</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>554</v>
@@ -1504,19 +1504,19 @@
         <v>575933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>555537</v>
+        <v>555962</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>595386</v>
+        <v>598511</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8323066512467382</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8028322664775022</v>
+        <v>0.8034458337810741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8604188615781079</v>
+        <v>0.8649358132137973</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>45239</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>33544</v>
+        <v>32040</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>59245</v>
+        <v>59377</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1120568559685895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08308701214929366</v>
+        <v>0.07936244071705383</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1467496261432987</v>
+        <v>0.147075930237902</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>28</v>
@@ -1554,19 +1554,19 @@
         <v>28208</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18665</v>
+        <v>19355</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38475</v>
+        <v>39401</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09785712023192368</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0647511759446439</v>
+        <v>0.06714623458658694</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1334768385518375</v>
+        <v>0.1366871367171777</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>71</v>
@@ -1575,19 +1575,19 @@
         <v>73447</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58404</v>
+        <v>55848</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>90829</v>
+        <v>89676</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1061416748657232</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0844021428456052</v>
+        <v>0.08070862875046153</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1312607075347488</v>
+        <v>0.129594265283377</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>23681</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15216</v>
+        <v>16410</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34450</v>
+        <v>37152</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05865643116826463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03769054635737773</v>
+        <v>0.04064843317982061</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08533219678561048</v>
+        <v>0.09202410987487095</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1625,19 +1625,19 @@
         <v>6799</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3012</v>
+        <v>2634</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14246</v>
+        <v>13982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02358534306912499</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01044885244411828</v>
+        <v>0.009138313938020374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04942088964058602</v>
+        <v>0.04850607714816582</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1646,19 +1646,19 @@
         <v>30479</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20244</v>
+        <v>20470</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43369</v>
+        <v>43457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04404687494636127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02925545460183476</v>
+        <v>0.0295826882582203</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06267460020948075</v>
+        <v>0.06280180874951696</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>6466</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2592</v>
+        <v>2641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13981</v>
+        <v>13947</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01601583405334738</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00642060549087797</v>
+        <v>0.006541883474431843</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03463165984696162</v>
+        <v>0.03454670390794004</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1696,19 +1696,19 @@
         <v>5647</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1967</v>
+        <v>1977</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12683</v>
+        <v>12448</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01959018073194927</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006823302497433928</v>
+        <v>0.006859324316196253</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04399925186305085</v>
+        <v>0.04318495318638328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1717,19 +1717,19 @@
         <v>12113</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6508</v>
+        <v>6014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>21547</v>
+        <v>21976</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01750479894117728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009404791157031399</v>
+        <v>0.008690382841893217</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03113921678139318</v>
+        <v>0.03175823111446795</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>932843</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>889208</v>
+        <v>883282</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>977765</v>
+        <v>974814</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4911081790632111</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4681357686831525</v>
+        <v>0.4650157170662292</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5147579692474554</v>
+        <v>0.513204314181873</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>762</v>
@@ -1842,19 +1842,19 @@
         <v>799364</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>771157</v>
+        <v>769916</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>825017</v>
+        <v>823446</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7854488059337985</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7577334577864778</v>
+        <v>0.756514086540484</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8106558293269777</v>
+        <v>0.8091120257026916</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1657</v>
@@ -1863,19 +1863,19 @@
         <v>1732207</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1680330</v>
+        <v>1672835</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1784149</v>
+        <v>1783134</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5937946967198448</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5760113312208921</v>
+        <v>0.5734421284355243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6116001393411359</v>
+        <v>0.6112523291790251</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>435043</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>399933</v>
+        <v>398729</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>473067</v>
+        <v>478976</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2290342649799665</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2105503837745979</v>
+        <v>0.209916335799756</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2490527839354465</v>
+        <v>0.2521635925410742</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>152</v>
@@ -1913,19 +1913,19 @@
         <v>157903</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>133635</v>
+        <v>134449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183962</v>
+        <v>182383</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1551543569548289</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1313084475124416</v>
+        <v>0.1321087841404064</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1807600870639927</v>
+        <v>0.1792082029449186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>564</v>
@@ -1934,19 +1934,19 @@
         <v>592946</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>550569</v>
+        <v>545923</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>640201</v>
+        <v>638867</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2032598057741386</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1887330968818722</v>
+        <v>0.1871406353350268</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2194588383646321</v>
+        <v>0.2190015353558752</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>407384</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>371359</v>
+        <v>370745</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>445120</v>
+        <v>445387</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2144729940590268</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1955068915471364</v>
+        <v>0.1951839010354238</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2343394344101034</v>
+        <v>0.2344800725090282</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>38</v>
@@ -1984,19 +1984,19 @@
         <v>39279</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28963</v>
+        <v>28512</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53892</v>
+        <v>53120</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03859485004390292</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02845903690042401</v>
+        <v>0.02801530362009131</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05295340085746189</v>
+        <v>0.05219542584763644</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>426</v>
@@ -2005,19 +2005,19 @@
         <v>446663</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>411104</v>
+        <v>406088</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>487810</v>
+        <v>489775</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.153114443821361</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1409251956178908</v>
+        <v>0.1392057322600731</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1672197519521752</v>
+        <v>0.1678930880290611</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>124196</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103077</v>
+        <v>103000</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>148312</v>
+        <v>145928</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06538456189779561</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05426622588797394</v>
+        <v>0.05422568825220062</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07808073310035794</v>
+        <v>0.07682569298015275</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2055,19 +2055,19 @@
         <v>21171</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12994</v>
+        <v>12928</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32069</v>
+        <v>30594</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02080198706746964</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01276745341079473</v>
+        <v>0.01270274789301242</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03151107326533203</v>
+        <v>0.03006171051962376</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>144</v>
@@ -2076,19 +2076,19 @@
         <v>145366</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123408</v>
+        <v>122699</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>170018</v>
+        <v>168814</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0498310536846556</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04230385146927557</v>
+        <v>0.04206063418448738</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05828147944218728</v>
+        <v>0.05786894510892693</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>31390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22508</v>
+        <v>22326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42461</v>
+        <v>41230</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1715116972365227</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1229801256794053</v>
+        <v>0.121990119434683</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2320032464550167</v>
+        <v>0.2252801223905496</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -2440,19 +2440,19 @@
         <v>55776</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45327</v>
+        <v>44467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>68181</v>
+        <v>67531</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4067117052599772</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3305163801132216</v>
+        <v>0.3242475078398832</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4971653406067251</v>
+        <v>0.4924287602225177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>82</v>
@@ -2461,19 +2461,19 @@
         <v>87166</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71439</v>
+        <v>71058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105017</v>
+        <v>102240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2722595389972144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2231359414923365</v>
+        <v>0.2219455227837963</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3280149703852871</v>
+        <v>0.3193425548938469</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>55419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42892</v>
+        <v>44429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>68830</v>
+        <v>68686</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3028055684028437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2343570855370127</v>
+        <v>0.2427568351508562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3760820049982562</v>
+        <v>0.375297122827797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -2511,19 +2511,19 @@
         <v>58696</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46562</v>
+        <v>47043</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69931</v>
+        <v>70028</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4280066618650387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3395245833726601</v>
+        <v>0.3430285226446057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5099305227465216</v>
+        <v>0.5106347493966898</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -2532,19 +2532,19 @@
         <v>114116</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>96740</v>
+        <v>98027</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>131151</v>
+        <v>133325</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3564354133097237</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3021640040854909</v>
+        <v>0.3061828846924146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4096449986604441</v>
+        <v>0.416434129466365</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>58256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45175</v>
+        <v>45348</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71732</v>
+        <v>71446</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3183101163742035</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2468352923518655</v>
+        <v>0.247776306043637</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3919371900961264</v>
+        <v>0.3903752895794455</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -2582,19 +2582,19 @@
         <v>11451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6239</v>
+        <v>6201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20044</v>
+        <v>19592</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08350278817637452</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04549445788499509</v>
+        <v>0.0452168792724514</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1461574593445653</v>
+        <v>0.1428619735867383</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>67</v>
@@ -2603,19 +2603,19 @@
         <v>69708</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>56016</v>
+        <v>55689</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>85958</v>
+        <v>86349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2177304788804554</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1749636111187041</v>
+        <v>0.1739428527728193</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2684864384956932</v>
+        <v>0.2697066482856081</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>37953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28273</v>
+        <v>27954</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49102</v>
+        <v>50741</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2073726179864301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1544816826874134</v>
+        <v>0.1527383859946915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2682893785816273</v>
+        <v>0.2772454804602654</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -2653,19 +2653,19 @@
         <v>11215</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6044</v>
+        <v>5319</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20058</v>
+        <v>19781</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08177884469860956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04407570744407369</v>
+        <v>0.0387884476150064</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1462607905624474</v>
+        <v>0.1442390976520771</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -2674,19 +2674,19 @@
         <v>49168</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36893</v>
+        <v>36791</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63405</v>
+        <v>64280</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1535745688126064</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1152349129381105</v>
+        <v>0.1149160778034993</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1980421677416442</v>
+        <v>0.2007756260789147</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>270470</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>242178</v>
+        <v>241540</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>299480</v>
+        <v>299184</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2983341228037952</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.26712720619462</v>
+        <v>0.2664239983028845</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3303328545075626</v>
+        <v>0.3300067919920941</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>249</v>
@@ -2799,19 +2799,19 @@
         <v>268434</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>242995</v>
+        <v>243832</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>293381</v>
+        <v>292858</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4694727386619553</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4249815686225922</v>
+        <v>0.4264446763556409</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5131037260277641</v>
+        <v>0.5121875598052714</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>497</v>
@@ -2820,19 +2820,19 @@
         <v>538904</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>500510</v>
+        <v>503291</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>573624</v>
+        <v>576438</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3645236832179619</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3385532868988018</v>
+        <v>0.3404342707440085</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3880084836535102</v>
+        <v>0.3899122460311117</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>286949</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>259585</v>
+        <v>262988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>315181</v>
+        <v>320848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3165109458969388</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2863274781861413</v>
+        <v>0.2900813828436806</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3476517018082984</v>
+        <v>0.3539020125252042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -2870,19 +2870,19 @@
         <v>183863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>161966</v>
+        <v>161096</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>207865</v>
+        <v>207659</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3215640445625176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2832672833479613</v>
+        <v>0.2817462327030185</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3635411218601007</v>
+        <v>0.3631803785216693</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>447</v>
@@ -2891,19 +2891,19 @@
         <v>470812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>438538</v>
+        <v>435105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>509757</v>
+        <v>507523</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3184652820222308</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2966345404645295</v>
+        <v>0.2943124550562092</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3448077343217208</v>
+        <v>0.3432972256069237</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>225407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200317</v>
+        <v>201349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>256477</v>
+        <v>251075</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2486288119451253</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2209533811382292</v>
+        <v>0.2220917977379767</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2829000095918652</v>
+        <v>0.2769406252697878</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>83</v>
@@ -2941,19 +2941,19 @@
         <v>87517</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>70667</v>
+        <v>70216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105437</v>
+        <v>106514</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1530618837810577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1235917976471176</v>
+        <v>0.1228031442215163</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1844023078988325</v>
+        <v>0.1862859801697656</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>304</v>
@@ -2962,19 +2962,19 @@
         <v>312925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>279913</v>
+        <v>282937</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>342975</v>
+        <v>344372</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2116673527584126</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.189338052847329</v>
+        <v>0.1913830750026795</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2319937905438766</v>
+        <v>0.2329390558382865</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>123775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102448</v>
+        <v>102849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>146793</v>
+        <v>147481</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1365261193541407</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1130024719700857</v>
+        <v>0.1134446747584951</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1619161655389911</v>
+        <v>0.162674428483769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -3012,19 +3012,19 @@
         <v>31963</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22412</v>
+        <v>21948</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>43704</v>
+        <v>44283</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05590133299446935</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03919736576208212</v>
+        <v>0.03838579237668992</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.07643526698309644</v>
+        <v>0.07744747388945772</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>145</v>
@@ -3033,19 +3033,19 @@
         <v>155738</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>130595</v>
+        <v>131185</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>181497</v>
+        <v>180338</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1053436820013947</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0883368241919686</v>
+        <v>0.08873583811397164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1227679027733788</v>
+        <v>0.121983826906701</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>206122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>187292</v>
+        <v>187079</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>224429</v>
+        <v>224893</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6517561028591741</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5922152993129973</v>
+        <v>0.5915422450967738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7096405144405371</v>
+        <v>0.7111069564836379</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>167</v>
@@ -3158,19 +3158,19 @@
         <v>186095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>171341</v>
+        <v>170318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199461</v>
+        <v>197872</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.792242414513707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7294287132869703</v>
+        <v>0.7250767097064214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8491444674473907</v>
+        <v>0.8423760603779707</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>356</v>
@@ -3179,19 +3179,19 @@
         <v>392218</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>368155</v>
+        <v>368098</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>412639</v>
+        <v>415281</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7116300872765164</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.667971318849375</v>
+        <v>0.6678668978267432</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7486815457522468</v>
+        <v>0.753475811128007</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>79349</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>64242</v>
+        <v>64554</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>97416</v>
+        <v>96785</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.25089911519223</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2031332362113695</v>
+        <v>0.204119811539537</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3080275151486839</v>
+        <v>0.3060342269475919</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>34</v>
@@ -3229,19 +3229,19 @@
         <v>37606</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>27095</v>
+        <v>26372</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52141</v>
+        <v>51730</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1600962025906611</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1153466493094164</v>
+        <v>0.1122714189986295</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2219719890434576</v>
+        <v>0.2202242905401455</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>105</v>
@@ -3250,19 +3250,19 @@
         <v>116955</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>98455</v>
+        <v>98362</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>139930</v>
+        <v>140030</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2121997422061629</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1786351024749938</v>
+        <v>0.1784663614348822</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2538849815653032</v>
+        <v>0.2540672842683539</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>27429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17442</v>
+        <v>17703</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40915</v>
+        <v>40761</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.086729263344278</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05515125892778446</v>
+        <v>0.05597745204986618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1293710916301236</v>
+        <v>0.1288858486708959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3300,19 +3300,19 @@
         <v>7231</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2854</v>
+        <v>3088</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15730</v>
+        <v>16929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03078351693296191</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01215064185561705</v>
+        <v>0.01314815196298533</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06696676346853665</v>
+        <v>0.07207167904324961</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -3321,19 +3321,19 @@
         <v>34660</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23406</v>
+        <v>22945</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>49790</v>
+        <v>48869</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06288569659818181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04246647733909799</v>
+        <v>0.041630119083444</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09033741147721606</v>
+        <v>0.0886670545444713</v>
       </c>
     </row>
     <row r="17">
@@ -3353,16 +3353,16 @@
         <v>950</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8990</v>
+        <v>10174</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01061551860431792</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003004402526245475</v>
+        <v>0.003004877623199687</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02842470381240162</v>
+        <v>0.03217108486672066</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -3371,19 +3371,19 @@
         <v>3965</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12750</v>
+        <v>11599</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01687786596266999</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004109176081440583</v>
+        <v>0.004123566427270122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05427871360941708</v>
+        <v>0.04938020904011133</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -3392,19 +3392,19 @@
         <v>7322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2866</v>
+        <v>2910</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15866</v>
+        <v>16979</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01328447391913886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.00519928547625309</v>
+        <v>0.005279821100071506</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02878636933764139</v>
+        <v>0.03080631357775662</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>507983</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>471409</v>
+        <v>469406</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>543389</v>
+        <v>545971</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3613278770289459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3353130471477461</v>
+        <v>0.3338885723121037</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3865124480478562</v>
+        <v>0.3883492057285383</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>467</v>
@@ -3517,19 +3517,19 @@
         <v>510306</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>477662</v>
+        <v>478580</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>540648</v>
+        <v>540371</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5406844058833836</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5060980527619096</v>
+        <v>0.5070704278914616</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5728330775190226</v>
+        <v>0.572539554122205</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>935</v>
@@ -3538,19 +3538,19 @@
         <v>1018288</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>971037</v>
+        <v>968689</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1071032</v>
+        <v>1071730</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4333710638864938</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4132617574831104</v>
+        <v>0.4122621005409346</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4558180351417673</v>
+        <v>0.4561152571374594</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>421717</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>386700</v>
+        <v>385041</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>458937</v>
+        <v>455148</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2999671397267586</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2750598983086875</v>
+        <v>0.2738797640148216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3264417245382124</v>
+        <v>0.3237468296899618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>261</v>
@@ -3588,19 +3588,19 @@
         <v>280166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>253134</v>
+        <v>250082</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>310440</v>
+        <v>308530</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2968443334155337</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2682036528495169</v>
+        <v>0.2649691361739229</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3289212241859429</v>
+        <v>0.3268966877590936</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>659</v>
@@ -3609,19 +3609,19 @@
         <v>701883</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>654645</v>
+        <v>655025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>746574</v>
+        <v>750766</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2987127838355266</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2786091417166807</v>
+        <v>0.278770822105058</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.31773294971604</v>
+        <v>0.3195169348933465</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>311093</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>276852</v>
+        <v>282226</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>342516</v>
+        <v>345012</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2212800702425577</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1969248426431275</v>
+        <v>0.200747278095782</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2436315746600169</v>
+        <v>0.2454066976336507</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>100</v>
@@ -3659,19 +3659,19 @@
         <v>106200</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>86781</v>
+        <v>86115</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>127360</v>
+        <v>125334</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1125220143792764</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.0919468494067813</v>
+        <v>0.09124152639178726</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1349419870435753</v>
+        <v>0.1327949151671318</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>400</v>
@@ -3680,19 +3680,19 @@
         <v>417292</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>380927</v>
+        <v>382226</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>454922</v>
+        <v>458060</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1775945852988736</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1621177175817042</v>
+        <v>0.1626708308261013</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.193609264078657</v>
+        <v>0.1949448805635026</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>165085</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>139501</v>
+        <v>142900</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>190520</v>
+        <v>192485</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1174249130017376</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09922701024436487</v>
+        <v>0.1016448579768866</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1355170935863118</v>
+        <v>0.1369142107048147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -3730,19 +3730,19 @@
         <v>47143</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33823</v>
+        <v>33697</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>62273</v>
+        <v>61742</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04994924632180618</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03583697164387958</v>
+        <v>0.03570281997090888</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0659803885498591</v>
+        <v>0.06541779927225463</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>197</v>
@@ -3751,19 +3751,19 @@
         <v>212228</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182594</v>
+        <v>182055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>241019</v>
+        <v>244013</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09032156697910615</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0777097206896793</v>
+        <v>0.07748025976258667</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1025747888080994</v>
+        <v>0.1038491869181884</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>16441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9986</v>
+        <v>9531</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26045</v>
+        <v>25239</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1214041381134557</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07373810284898012</v>
+        <v>0.07037868843477559</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1923200319460639</v>
+        <v>0.1863642890466255</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4115,19 +4115,19 @@
         <v>19306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12605</v>
+        <v>12835</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27084</v>
+        <v>27447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2792755285228466</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1823447857225494</v>
+        <v>0.1856728713070946</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3917933793876127</v>
+        <v>0.3970394558564697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -4136,19 +4136,19 @@
         <v>35747</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25881</v>
+        <v>26043</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47809</v>
+        <v>47714</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1747562478818124</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1265255992165389</v>
+        <v>0.1273159029788308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2337231569797652</v>
+        <v>0.2332605794970756</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>37347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27140</v>
+        <v>27706</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48871</v>
+        <v>50677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2757711481351193</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2004054736379006</v>
+        <v>0.2045849771032333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3608650166792152</v>
+        <v>0.3742029007079797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4186,19 +4186,19 @@
         <v>24782</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17856</v>
+        <v>17240</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33773</v>
+        <v>33554</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3584999955023758</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2583078872698047</v>
+        <v>0.2493888188093678</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4885594164944665</v>
+        <v>0.4853910051735153</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>60</v>
@@ -4207,19 +4207,19 @@
         <v>62129</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>49535</v>
+        <v>50070</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>76535</v>
+        <v>75981</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3037290861396037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2421609045739245</v>
+        <v>0.2447780249610412</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3741534726937882</v>
+        <v>0.3714459872372748</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>44855</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33992</v>
+        <v>34423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>56386</v>
+        <v>56991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.331216821775407</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2510020668484827</v>
+        <v>0.2541810475053434</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4163626545326592</v>
+        <v>0.4208273094128973</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -4257,19 +4257,19 @@
         <v>15703</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9524</v>
+        <v>9627</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22798</v>
+        <v>23034</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2271547461478573</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1377783870870019</v>
+        <v>0.1392664368711941</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.329790565605721</v>
+        <v>0.3332051929454319</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>60</v>
@@ -4278,19 +4278,19 @@
         <v>60558</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>46837</v>
+        <v>47301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>74523</v>
+        <v>73401</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2960493904428087</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2289692534406669</v>
+        <v>0.2312402595285497</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3643186758320873</v>
+        <v>0.3588328529948835</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>36783</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27591</v>
+        <v>27081</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48549</v>
+        <v>48050</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.271607891976018</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2037333697786391</v>
+        <v>0.1999726358811187</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3584890471688165</v>
+        <v>0.3548076466976234</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -4328,19 +4328,19 @@
         <v>9337</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4996</v>
+        <v>4314</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16537</v>
+        <v>15767</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1350697298269203</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07226880426273101</v>
+        <v>0.06241258925019973</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2392296508842016</v>
+        <v>0.2280833468749317</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -4349,19 +4349,19 @@
         <v>46120</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34203</v>
+        <v>34591</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60228</v>
+        <v>59924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2254652755357752</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1672094754115731</v>
+        <v>0.1691046163967008</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2944338897689454</v>
+        <v>0.2929486081187158</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>301223</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>273240</v>
+        <v>273348</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>331699</v>
+        <v>331362</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3286136755277545</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2980862170606001</v>
+        <v>0.2982038962158843</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3618601079899659</v>
+        <v>0.3614931215184654</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>303</v>
@@ -4474,19 +4474,19 @@
         <v>309100</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>283098</v>
+        <v>284849</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>334807</v>
+        <v>333625</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4758703792303849</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4358392907379484</v>
+        <v>0.438535555493496</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5154478714677366</v>
+        <v>0.5136279532817289</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>581</v>
@@ -4495,19 +4495,19 @@
         <v>610323</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>575137</v>
+        <v>573928</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>653019</v>
+        <v>648078</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3896852875037654</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3672192219889518</v>
+        <v>0.3664473522682013</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4169459346010152</v>
+        <v>0.4137916893730532</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>290495</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>264978</v>
+        <v>262026</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>324250</v>
+        <v>319013</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3169095466092128</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2890725421223141</v>
+        <v>0.2858515957916999</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3537337428882894</v>
+        <v>0.3480212063769152</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -4545,19 +4545,19 @@
         <v>203889</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>180739</v>
+        <v>180837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>229037</v>
+        <v>228493</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.313894983310328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2782547598729962</v>
+        <v>0.2784057443709644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.352611247818144</v>
+        <v>0.3517728039176283</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>471</v>
@@ -4566,19 +4566,19 @@
         <v>494384</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>456863</v>
+        <v>456038</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>528182</v>
+        <v>533396</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3156593200630693</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2917025532997016</v>
+        <v>0.2911757271207128</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3372391329054212</v>
+        <v>0.3405682697159628</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>211091</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>183558</v>
+        <v>186249</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>236744</v>
+        <v>237519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2302853887699547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2002489544475531</v>
+        <v>0.2031842703500085</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2582711997764341</v>
+        <v>0.259116277933734</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -4616,19 +4616,19 @@
         <v>97285</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>80568</v>
+        <v>79197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117050</v>
+        <v>114668</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1497732781484358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1240367012837518</v>
+        <v>0.1219264447175679</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1802022912864862</v>
+        <v>0.1765360017628688</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>297</v>
@@ -4637,19 +4637,19 @@
         <v>308375</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>278524</v>
+        <v>279286</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>343486</v>
+        <v>342593</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1968946890217351</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1778350230547148</v>
+        <v>0.1783213205676093</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2193123883120275</v>
+        <v>0.2187419430863258</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>113840</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>94684</v>
+        <v>94437</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>135836</v>
+        <v>135027</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1241913890930781</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1032939693232013</v>
+        <v>0.103024387474178</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1481875918981989</v>
+        <v>0.1473047826113254</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -4687,19 +4687,19 @@
         <v>39272</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27582</v>
+        <v>27560</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53001</v>
+        <v>53060</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06046135931085126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04246281095310713</v>
+        <v>0.04242922345292753</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08159748678362641</v>
+        <v>0.08168801889788102</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>143</v>
@@ -4708,19 +4708,19 @@
         <v>153112</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>130370</v>
+        <v>129536</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>180595</v>
+        <v>178453</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09776070341143023</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08323995622925673</v>
+        <v>0.0827072210760796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1153083869917791</v>
+        <v>0.1139406812824413</v>
       </c>
     </row>
     <row r="13">
@@ -4812,19 +4812,19 @@
         <v>244126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>225122</v>
+        <v>226027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>259274</v>
+        <v>261763</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7046895449630379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6498352372539269</v>
+        <v>0.6524477551820538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7484170703310659</v>
+        <v>0.7556010069734295</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>218</v>
@@ -4833,19 +4833,19 @@
         <v>227597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>211332</v>
+        <v>211341</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>241806</v>
+        <v>242906</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7378663030865823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6851348675076234</v>
+        <v>0.6851637701075659</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7839314773544351</v>
+        <v>0.787497043406624</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>439</v>
@@ -4854,19 +4854,19 @@
         <v>471723</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>448323</v>
+        <v>450083</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>494679</v>
+        <v>492856</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7203159673281112</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6845850707808575</v>
+        <v>0.6872719407793541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7553705271484095</v>
+        <v>0.7525867635566258</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>64139</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>50855</v>
+        <v>49350</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>80339</v>
+        <v>80368</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1851420643529639</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1467978225093255</v>
+        <v>0.1424544471701857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2319050856223875</v>
+        <v>0.2319897393267935</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -4904,19 +4904,19 @@
         <v>48995</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>37113</v>
+        <v>36475</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>63212</v>
+        <v>61985</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1588405143330725</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.120320608261544</v>
+        <v>0.1182514688218142</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2049320569606669</v>
+        <v>0.200954636143798</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -4925,19 +4925,19 @@
         <v>113134</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>96368</v>
+        <v>92923</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>135048</v>
+        <v>133522</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.172753900086388</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1471533031062285</v>
+        <v>0.1418924348243045</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2062165695073783</v>
+        <v>0.2038864841076385</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>29546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21097</v>
+        <v>20462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43141</v>
+        <v>41838</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08528833477537948</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0608995312402044</v>
+        <v>0.05906432912514715</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1245303298653204</v>
+        <v>0.1207696946167005</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -4975,19 +4975,19 @@
         <v>19836</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12631</v>
+        <v>12510</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29671</v>
+        <v>30400</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06430655541560296</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04094809869275343</v>
+        <v>0.04055613127070857</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0961931527916406</v>
+        <v>0.09855514698227889</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -4996,19 +4996,19 @@
         <v>49382</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36988</v>
+        <v>36828</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64469</v>
+        <v>63118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07540580963456509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05648073510789839</v>
+        <v>0.05623615169187361</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09844426775860095</v>
+        <v>0.09638053061158257</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>8619</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3949</v>
+        <v>3810</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16190</v>
+        <v>16461</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02488005590861869</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01139865943506487</v>
+        <v>0.01099891038837681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04673308252507892</v>
+        <v>0.04751539038191364</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -5046,19 +5046,19 @@
         <v>12026</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6972</v>
+        <v>6724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20538</v>
+        <v>20613</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03898662716474226</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02260364455606634</v>
+        <v>0.02179851692299337</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06658337208468247</v>
+        <v>0.06682733662872067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -5067,19 +5067,19 @@
         <v>20645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12559</v>
+        <v>12670</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31196</v>
+        <v>31481</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03152432295093572</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01917821736580788</v>
+        <v>0.01934718342929364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04763643279811908</v>
+        <v>0.04807162893386489</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>561790</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>525898</v>
+        <v>523096</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>598023</v>
+        <v>602082</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4017077712556261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3760429401272808</v>
+        <v>0.3740395261204673</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4276165770832868</v>
+        <v>0.4305188126225234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>540</v>
@@ -5192,19 +5192,19 @@
         <v>556003</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>524642</v>
+        <v>523716</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>585184</v>
+        <v>587836</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.54131813077568</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5107849700807235</v>
+        <v>0.5098837083934192</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.569728046461401</v>
+        <v>0.5723104433941797</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1054</v>
@@ -5213,19 +5213,19 @@
         <v>1117793</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1067781</v>
+        <v>1068929</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1168033</v>
+        <v>1167963</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4608254358623112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4402075374832408</v>
+        <v>0.4406805343615698</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4815374621844436</v>
+        <v>0.481508934023116</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>391980</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>360057</v>
+        <v>354176</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>425933</v>
+        <v>423823</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2802851541072897</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2574584411839785</v>
+        <v>0.2532532040249202</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3045635752263865</v>
+        <v>0.3030546087920034</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>273</v>
@@ -5263,19 +5263,19 @@
         <v>277667</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>250790</v>
+        <v>252397</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>306758</v>
+        <v>308157</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2703331478427177</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.244166359382551</v>
+        <v>0.2457310001967103</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2986560506964602</v>
+        <v>0.3000180976985753</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>641</v>
@@ -5284,19 +5284,19 @@
         <v>669647</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>622229</v>
+        <v>625392</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>715530</v>
+        <v>715684</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2760710014431524</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2565223536880801</v>
+        <v>0.2578262860818474</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2949868774976902</v>
+        <v>0.2950503229460582</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>285492</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>256408</v>
+        <v>258650</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>316872</v>
+        <v>319668</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2041413153816652</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1833447835675735</v>
+        <v>0.1849474325261221</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2265795153542175</v>
+        <v>0.2285785895583015</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>132</v>
@@ -5334,19 +5334,19 @@
         <v>132823</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>113890</v>
+        <v>112355</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>156373</v>
+        <v>156538</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.129315032974662</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.110882013614448</v>
+        <v>0.1093873245755356</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1522426565407513</v>
+        <v>0.1524040096198226</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>404</v>
@@ -5355,19 +5355,19 @@
         <v>418316</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>382101</v>
+        <v>381089</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>460868</v>
+        <v>457285</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1724563094672803</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1575264407456104</v>
+        <v>0.1571091599221125</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1899989514228911</v>
+        <v>0.1885221936371968</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>159242</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134559</v>
+        <v>136250</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>184588</v>
+        <v>184811</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.113865759255419</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0962166094454293</v>
+        <v>0.09742575687041498</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1319897417764407</v>
+        <v>0.1321490310093099</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -5405,19 +5405,19 @@
         <v>60635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47018</v>
+        <v>46511</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76805</v>
+        <v>79427</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05903368840694033</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04577609815380914</v>
+        <v>0.04528260052909584</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07477669243312958</v>
+        <v>0.07732950918467069</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>205</v>
@@ -5426,19 +5426,19 @@
         <v>219877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>194760</v>
+        <v>192173</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>252547</v>
+        <v>251865</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09064725322725616</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0802926630563767</v>
+        <v>0.07922615528233658</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1041157927038719</v>
+        <v>0.1038347675154374</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>17259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10036</v>
+        <v>10504</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27292</v>
+        <v>26759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1993320517494176</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.115911358450253</v>
+        <v>0.1213156480296717</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3152115183041201</v>
+        <v>0.3090480763663093</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -5790,19 +5790,19 @@
         <v>10517</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6039</v>
+        <v>6072</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15669</v>
+        <v>15620</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2384210004869726</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1369126585612126</v>
+        <v>0.1376658739334857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3552394586363146</v>
+        <v>0.354116162674382</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -5811,19 +5811,19 @@
         <v>27775</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19708</v>
+        <v>18998</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38641</v>
+        <v>38836</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2125246801098113</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1507986076627099</v>
+        <v>0.145364561453738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2956627719110934</v>
+        <v>0.2971561298701162</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>23308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14766</v>
+        <v>14409</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36613</v>
+        <v>36126</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2691948730566508</v>
+        <v>0.2691948730566509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1705350778955028</v>
+        <v>0.166412123364802</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4228574899836001</v>
+        <v>0.4172329077326268</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -5861,19 +5861,19 @@
         <v>19548</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14191</v>
+        <v>14185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25371</v>
+        <v>25247</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4431729029402999</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3217144696172555</v>
+        <v>0.3215906172030408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.575183758551573</v>
+        <v>0.5723740701752822</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -5882,19 +5882,19 @@
         <v>42856</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>32120</v>
+        <v>31709</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56729</v>
+        <v>54846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3279129395500406</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2457683089531302</v>
+        <v>0.2426201106323289</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4340618854651014</v>
+        <v>0.4196573894843</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>22256</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14362</v>
+        <v>14439</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>33067</v>
+        <v>34083</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2570486278310125</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1658782329711259</v>
+        <v>0.1667671128683799</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3819049152483908</v>
+        <v>0.3936456856234502</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -5932,19 +5932,19 @@
         <v>11431</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7159</v>
+        <v>6561</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17895</v>
+        <v>17543</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2591470166814241</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1622969908511042</v>
+        <v>0.1487526355766552</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.405704680185616</v>
+        <v>0.3977266176708978</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>33</v>
@@ -5953,19 +5953,19 @@
         <v>33687</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>23316</v>
+        <v>22749</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44460</v>
+        <v>43872</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2577568398743944</v>
+        <v>0.2577568398743945</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1784007306905472</v>
+        <v>0.1740652838784052</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3401878689757733</v>
+        <v>0.3356903758133146</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>23761</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15130</v>
+        <v>15277</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34034</v>
+        <v>34305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2744244473629192</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.174740585058397</v>
+        <v>0.1764406435257222</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3930773107212305</v>
+        <v>0.3962097948781192</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -6003,19 +6003,19 @@
         <v>2614</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1062</v>
+        <v>666</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6339</v>
+        <v>6133</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05925907989130329</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02408067630820288</v>
+        <v>0.01509436363002906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1437159957594816</v>
+        <v>0.1390530507658155</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -6024,19 +6024,19 @@
         <v>26375</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16153</v>
+        <v>17406</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36748</v>
+        <v>37600</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2018055404657536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1235973247327483</v>
+        <v>0.1331836854956467</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2811772358327367</v>
+        <v>0.2876935163888148</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>170422</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>146874</v>
+        <v>148415</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197727</v>
+        <v>196750</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2757593727908849</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2376575042877354</v>
+        <v>0.2401497197464281</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3199421601256166</v>
+        <v>0.3183604861688096</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>239</v>
@@ -6149,19 +6149,19 @@
         <v>182739</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>164886</v>
+        <v>163888</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>200894</v>
+        <v>203304</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4071572317664546</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3673789431483679</v>
+        <v>0.3651558525549612</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4476091613100827</v>
+        <v>0.4529775886653769</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>384</v>
@@ -6170,19 +6170,19 @@
         <v>353160</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>319561</v>
+        <v>323772</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>384109</v>
+        <v>382346</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3310387999162821</v>
+        <v>0.331038799916282</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2995437906275568</v>
+        <v>0.3034909383560975</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3600489470816215</v>
+        <v>0.3583960001842271</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>178599</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>152589</v>
+        <v>151622</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>202613</v>
+        <v>204156</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2889916925673712</v>
+        <v>0.2889916925673711</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2469039783814246</v>
+        <v>0.2453391337691466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.327847598912387</v>
+        <v>0.3303450435768637</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -6220,19 +6220,19 @@
         <v>151985</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133052</v>
+        <v>134211</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169714</v>
+        <v>169665</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3386343646324846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2964514568718644</v>
+        <v>0.2990336533578781</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3781366702306356</v>
+        <v>0.3780277525581458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>363</v>
@@ -6241,19 +6241,19 @@
         <v>330584</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>301918</v>
+        <v>302222</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>362478</v>
+        <v>362324</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3098764961260323</v>
+        <v>0.3098764961260322</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.283006475181777</v>
+        <v>0.2832906701741272</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3397726347003421</v>
+        <v>0.3396287904077882</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>174240</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>149347</v>
+        <v>149602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>200658</v>
+        <v>200678</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2819382843125993</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.241658730767129</v>
+        <v>0.2420716484716161</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3246846659090304</v>
+        <v>0.3247169559965439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>92</v>
@@ -6291,19 +6291,19 @@
         <v>70646</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>58566</v>
+        <v>57698</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86234</v>
+        <v>85040</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.157406126230124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1304899042558412</v>
+        <v>0.1285559266008757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1921373149202912</v>
+        <v>0.1894760303407218</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>239</v>
@@ -6312,19 +6312,19 @@
         <v>244887</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>220013</v>
+        <v>217445</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>273657</v>
+        <v>273658</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2295472757287489</v>
+        <v>0.2295472757287488</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2062313124508399</v>
+        <v>0.2038243711013419</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2565150391443956</v>
+        <v>0.2565159736112778</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>94747</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75483</v>
+        <v>74419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117927</v>
+        <v>117583</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1533106503291447</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1221390633509651</v>
+        <v>0.1204173550581447</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.190817325269258</v>
+        <v>0.1902609933484414</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>52</v>
@@ -6362,19 +6362,19 @@
         <v>43446</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>32357</v>
+        <v>32571</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>57549</v>
+        <v>58132</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09680227737093691</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07209465177517865</v>
+        <v>0.07257093507724047</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1282229643557592</v>
+        <v>0.1295236759921193</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -6383,19 +6383,19 @@
         <v>138194</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>113769</v>
+        <v>117149</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>164217</v>
+        <v>165436</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1295374282289368</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1066426660799775</v>
+        <v>0.1098110769260245</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.153930643962905</v>
+        <v>0.1550736255207368</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>205617</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189391</v>
+        <v>189134</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>219245</v>
+        <v>219849</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7811193448951033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.719477253238667</v>
+        <v>0.7185004024630798</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8328905373557902</v>
+        <v>0.8351855947105029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -6508,19 +6508,19 @@
         <v>168573</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>156906</v>
+        <v>156046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>178914</v>
+        <v>178796</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7718631331544812</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7184405725946647</v>
+        <v>0.7145015684815605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8192106662948445</v>
+        <v>0.81866860256771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>400</v>
@@ -6529,19 +6529,19 @@
         <v>374191</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>354236</v>
+        <v>352437</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>392564</v>
+        <v>390952</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7769220809767667</v>
+        <v>0.7769220809767666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7354902827795087</v>
+        <v>0.7317555565639441</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8150698577628801</v>
+        <v>0.8117227968738377</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>39013</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>27384</v>
+        <v>27149</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>52302</v>
+        <v>53334</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1482046411939977</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1040305186421737</v>
+        <v>0.1031367712493769</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1986905495301083</v>
+        <v>0.2026095569449153</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>48</v>
@@ -6579,19 +6579,19 @@
         <v>33245</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>24151</v>
+        <v>24606</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42350</v>
+        <v>43018</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1522221037137356</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1105841892115241</v>
+        <v>0.1126636051208303</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1939119803996219</v>
+        <v>0.1969684861114133</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>85</v>
@@ -6600,19 +6600,19 @@
         <v>72258</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>58832</v>
+        <v>58487</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>89213</v>
+        <v>90661</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1500263746363479</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1221508120458253</v>
+        <v>0.1214340748535975</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1852305765316364</v>
+        <v>0.1882368154637969</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>12602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6704</v>
+        <v>6522</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21160</v>
+        <v>21384</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04787346966578662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02546672528298661</v>
+        <v>0.02477744580429391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08038513375178166</v>
+        <v>0.08123596457452524</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6650,19 +6650,19 @@
         <v>7831</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4013</v>
+        <v>4160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13243</v>
+        <v>13664</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.03585682840956999</v>
+        <v>0.03585682840957</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01837510163444833</v>
+        <v>0.01904714887002364</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06063689547070233</v>
+        <v>0.06256355520396427</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -6671,19 +6671,19 @@
         <v>20433</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13545</v>
+        <v>13721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>30623</v>
+        <v>29934</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04242447863385472</v>
+        <v>0.04242447863385471</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02812300878912017</v>
+        <v>0.02848792443218501</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06358249235843824</v>
+        <v>0.06215082459283121</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>6002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1217</v>
+        <v>1161</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20003</v>
+        <v>21603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02280254424511242</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004622610697812997</v>
+        <v>0.004408908325101466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07598973856796913</v>
+        <v>0.08206698553375566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -6721,19 +6721,19 @@
         <v>8749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4293</v>
+        <v>4207</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15896</v>
+        <v>16272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04005793472221321</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01965706409206694</v>
+        <v>0.01926335901204769</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07278329831234877</v>
+        <v>0.07450416866112392</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>13</v>
@@ -6742,19 +6742,19 @@
         <v>14751</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7619</v>
+        <v>8375</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29089</v>
+        <v>29538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03062706575303072</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0158198935955885</v>
+        <v>0.01738808179123063</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06039578741270411</v>
+        <v>0.06132948773131255</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>393298</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>362183</v>
+        <v>357203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>430137</v>
+        <v>426482</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4063722577100581</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3742233565073146</v>
+        <v>0.369077001257364</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.444435674018471</v>
+        <v>0.4406589648372282</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>480</v>
@@ -6867,19 +6867,19 @@
         <v>361828</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>337437</v>
+        <v>337201</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>384333</v>
+        <v>387058</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5086696752265796</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4743798667191167</v>
+        <v>0.4740475461491043</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.540307605663949</v>
+        <v>0.5441376166362841</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>814</v>
@@ -6888,19 +6888,19 @@
         <v>755127</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>707513</v>
+        <v>708854</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>794561</v>
+        <v>796536</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4497075910579174</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4213519088806569</v>
+        <v>0.4221504946766736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4731921703982376</v>
+        <v>0.4743686970025144</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>240920</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211369</v>
+        <v>211011</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>273883</v>
+        <v>273474</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.248928691157028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.218395895950482</v>
+        <v>0.218025241193317</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2829871058789342</v>
+        <v>0.2825650680007491</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>280</v>
@@ -6938,19 +6938,19 @@
         <v>204778</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>185829</v>
+        <v>181095</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226754</v>
+        <v>225482</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2878825821016478</v>
+        <v>0.2878825821016477</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2612447922463951</v>
+        <v>0.2545891243124226</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3187776497251338</v>
+        <v>0.3169897793127593</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>493</v>
@@ -6959,19 +6959,19 @@
         <v>445697</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>407262</v>
+        <v>407914</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>482358</v>
+        <v>481921</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2654303770281168</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2425405989292736</v>
+        <v>0.2429286699688278</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2872632936579453</v>
+        <v>0.287003216529949</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>209099</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>181769</v>
+        <v>180158</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>242160</v>
+        <v>235793</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2160495338506888</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1878116087527855</v>
+        <v>0.1861472703873376</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2502098987385818</v>
+        <v>0.2436312648481297</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>118</v>
@@ -7009,19 +7009,19 @@
         <v>89908</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>75360</v>
+        <v>75457</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>106422</v>
+        <v>109309</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1263957632182221</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1059428414265034</v>
+        <v>0.1060796186881353</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1496114521408379</v>
+        <v>0.153670592601574</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>295</v>
@@ -7030,19 +7030,19 @@
         <v>299007</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>268370</v>
+        <v>269337</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>334797</v>
+        <v>330972</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1780703147211052</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1598250776885647</v>
+        <v>0.1604007141714649</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1993847214266544</v>
+        <v>0.1971069974180145</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>124510</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>102085</v>
+        <v>102902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>154258</v>
+        <v>154170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1286495172822251</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1054788337439784</v>
+        <v>0.1063227793009038</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1593854366326762</v>
+        <v>0.1592950982580512</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>66</v>
@@ -7080,19 +7080,19 @@
         <v>54809</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43054</v>
+        <v>42847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>70407</v>
+        <v>70297</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07705197945355062</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06052661160242331</v>
+        <v>0.06023548558145923</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09897994294817831</v>
+        <v>0.09882635520827165</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>161</v>
@@ -7101,19 +7101,19 @@
         <v>179319</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>152459</v>
+        <v>152852</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>209838</v>
+        <v>208599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1067917171928605</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09079549026439759</v>
+        <v>0.09102929211413509</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1249670149435625</v>
+        <v>0.1242291631161463</v>
       </c>
     </row>
     <row r="23">
